--- a/StructureDefinition-Ocupaciones.xlsx
+++ b/StructureDefinition-Ocupaciones.xlsx
@@ -452,10 +452,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>Codigos obligados por estandar</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -3354,7 +3354,7 @@
         <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>49</v>

--- a/StructureDefinition-Ocupaciones.xlsx
+++ b/StructureDefinition-Ocupaciones.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -152,13 +152,16 @@
     <t>Event</t>
   </si>
   <si>
+    <t>clinical.diagnostics</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity|</t>
   </si>
   <si>
     <t>OBX</t>
   </si>
   <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+    <t>Entity, Role, or Act,Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -180,7 +183,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -219,7 +222,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -241,13 +244,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -270,10 +273,14 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-6
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -293,13 +300,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
   </si>
   <si>
     <t>N/A</t>
@@ -319,7 +330,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -338,11 +349,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -367,13 +378,35 @@
     <t>Event.identifier</t>
   </si>
   <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>OBX-21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 3) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>Observation.instantiates[x]</t>
+  </si>
+  <si>
+    <t>canonical(ObservationDefinition)
+Reference(ObservationDefinition)</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The reference to a FHIR ObservationDefinition resource that provides the definition that is adhered to in whole or in part by this Observation instance.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition can be referenced by its canonical url using instantiatesCanonical, or by a name or an identifier using the appropriate sub-elements of instantiatesReference.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
   </si>
   <si>
     <t>Observation.basedOn</t>
@@ -405,6 +438,115 @@
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
   </si>
   <si>
+    <t>Observation.triggeredBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Triggering observation(s)</t>
+  </si>
+  <si>
+    <t>Identifies the observation(s) that triggered the performance of this observation.</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Triggering observation</t>
+  </si>
+  <si>
+    <t>Reference to the triggering observation.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.type</t>
+  </si>
+  <si>
+    <t>reflex | repeat | re-run</t>
+  </si>
+  <si>
+    <t>The type of trigger.
+Reflex | Repeat | Re-run.</t>
+  </si>
+  <si>
+    <t>The type of TriggeredBy Observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-triggeredbytype|5.0.0</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.reason</t>
+  </si>
+  <si>
+    <t>Reason that the observation was triggered</t>
+  </si>
+  <si>
+    <t>Provides the reason why this observation was performed as a result of the observation(s) referenced.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
     <t>Observation.partOf</t>
   </si>
   <si>
@@ -412,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy|GenomicStudy)
 </t>
   </si>
   <si>
@@ -422,7 +564,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -449,9 +591,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codigos obligados por estandar</t>
   </si>
   <si>
@@ -461,6 +600,9 @@
     <t>Event.status</t>
   </si>
   <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
     <t>&lt; 445584004 |Report by finality status|</t>
   </si>
   <si>
@@ -468,9 +610,6 @@
   </si>
   <si>
     <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -492,16 +631,19 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -540,38 +682,39 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
     <t>OBX-3</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
     <t>116680003 |Is a|</t>
   </si>
   <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location|Organization|Procedure|Practitioner|Medication|Substance|BiologicallyDerivedProduct|NutritionProduct)
 </t>
   </si>
   <si>
     <t>Padciente sobre el cual se notifica la ocupación</t>
   </si>
   <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+    <t>The patient, or group of patients, location, device, organization, procedure or practitioner this observation is about and into whose or what record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated. The subject of an Observation may in some cases be a procedure.  This supports the regulatory inspection use case where observations are captured during inspections of a procedure that is being performed (independent of any particular patient or whether patient related at all).</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -580,13 +723,13 @@
     <t>Event.subject</t>
   </si>
   <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
     <t>PID-3</t>
   </si>
   <si>
     <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -602,7 +745,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [http://hl7.org/fhir/StructureDefinition/observation-focusCode](http://hl7.org/fhir/extensions/StructureDefinition-observation-focusCode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -631,16 +774,16 @@
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
   </si>
   <si>
-    <t>Event.context</t>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>PV1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
   </si>
   <si>
     <t>Observation.effective[x]</t>
@@ -660,7 +803,7 @@
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R5/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -669,13 +812,13 @@
     <t>Event.occurrence[x]</t>
   </si>
   <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
   </si>
   <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -691,16 +834,16 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+    <t>For Observations that don't require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R5/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn't require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>OBR-22 (or MSH-7), or perhaps OBX-19 (depends on who observation made)</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>Observation.performer</t>
@@ -722,15 +865,15 @@
     <t>Event.performer.actor</t>
   </si>
   <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>OBX-15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
     <t>participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
@@ -740,7 +883,15 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>- An observation may have:
+  1.  a single value here
+  1.  both a value and a set of related or component values
+  1.  only a set of related or component values.
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -753,14 +904,14 @@
     <t>closed</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+obs-6</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
+    <t>OBX-2, OBX-5, OBX-6</t>
   </si>
   <si>
     <t>value</t>
@@ -787,29 +938,10 @@
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.extension</t>
   </si>
   <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -822,9 +954,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept.coding</t>
   </si>
   <si>
@@ -880,7 +1009,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -935,6 +1064,10 @@
   </si>
   <si>
     <t>Coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod-1
+</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -1064,7 +1197,7 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
+    <t>High, low, normal, etc</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -1113,7 +1246,7 @@
     <t>Need to be able to provide free text additional information.</t>
   </si>
   <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+    <t>NTE-3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
   </si>
   <si>
     <t>subjectOf.observationEvent[code="annotation"].value</t>
@@ -1128,16 +1261,19 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
+    <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
+    <t xml:space="preserve">obs-8
+</t>
+  </si>
+  <si>
     <t>&lt; 123037004 |Body structure|</t>
   </si>
   <si>
@@ -1150,6 +1286,22 @@
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
+    <t>Observation.bodyStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(BodyStructure)
+</t>
+  </si>
+  <si>
+    <t>Observed body structure</t>
+  </si>
+  <si>
+    <t>Indicates the body structure on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code or bodySite is used. In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1180,7 +1332,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|Group)
 </t>
   </si>
   <si>
@@ -1191,6 +1343,10 @@
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-9:If Observation.specimen is a reference to Group, the group can only have specimens {(reference.resolve().exists() and reference.resolve() is Group) implies reference.resolve().member.entity.resolve().all($this is Specimen)}</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1212,10 +1368,10 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
+    <t>A reference to the device that generates the measurements or the device settings for the device</t>
+  </si>
+  <si>
+    <t>A reference to the device that generates the measurements or the device settings for the device.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1234,10 +1390,6 @@
   </si>
   <si>
     <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
   </si>
   <si>
     <t>Provides guide for interpretation</t>
@@ -1256,7 +1408,7 @@
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
-    <t>OBX.7</t>
+    <t>OBX-7</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
@@ -1269,20 +1421,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
     <t>Observation.referenceRange.low</t>
@@ -1302,9 +1440,6 @@
 </t>
   </si>
   <si>
-    <t>OBX-7</t>
-  </si>
-  <si>
     <t>value:IVL_PQ.low</t>
   </si>
   <si>
@@ -1318,6 +1453,24 @@
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.normalValue</t>
+  </si>
+  <si>
+    <t>Normal value, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the normal value of the reference range.</t>
+  </si>
+  <si>
+    <t>Codes identifying the normal value of the observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+  </si>
+  <si>
+    <t>value:IVL_PQ.normal</t>
   </si>
   <si>
     <t>Observation.referenceRange.type</t>
@@ -1396,6 +1549,10 @@
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>Text based reference range in an observation</t>
   </si>
   <si>
@@ -1418,29 +1575,26 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R5/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
-    <t>outBoundRelationship</t>
-  </si>
-  <si>
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
+    <t>Related resource from which the observation is made</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1455,7 +1609,7 @@
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -1496,13 +1650,22 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
   </si>
   <si>
     <t>Actual component result</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations:
+-  An observation may have both a value (e.g. an  Apgar score) and component observations (the observations from which the Apgar score was derived). 
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1844,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP62"/>
+  <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1862,7 +2025,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1876,7 +2039,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.4375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1887,11 +2050,11 @@
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="17.640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2009,7 +2172,7 @@
         <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AP1" t="s" s="2">
         <v>38</v>
@@ -2017,10 +2180,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2031,7 +2194,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2040,19 +2203,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2102,13 +2265,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2137,10 +2300,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2151,7 +2314,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2160,16 +2323,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2220,19 +2383,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2255,10 +2418,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2269,28 +2432,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2340,19 +2503,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2375,10 +2538,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2389,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2401,16 +2564,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2436,13 +2599,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2460,19 +2623,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2495,21 +2658,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2521,16 +2684,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2580,19 +2743,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2604,10 +2767,10 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AP6" t="s" s="2">
         <v>38</v>
@@ -2615,14 +2778,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2641,16 +2804,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2700,7 +2863,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2709,7 +2872,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2724,10 +2887,10 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>38</v>
@@ -2735,14 +2898,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2761,16 +2924,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2820,7 +2983,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2832,7 +2995,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2844,10 +3007,10 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>38</v>
@@ -2855,14 +3018,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2875,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2942,7 +3105,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2954,7 +3117,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2966,10 +3129,10 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>38</v>
@@ -2977,10 +3140,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3000,20 +3163,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3062,7 +3225,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3074,22 +3237,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3097,21 +3260,21 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3120,21 +3283,21 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>38</v>
       </c>
@@ -3182,34 +3345,34 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -3217,14 +3380,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3240,21 +3403,21 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
       </c>
@@ -3302,7 +3465,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3314,22 +3477,22 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>38</v>
@@ -3337,10 +3500,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3348,35 +3511,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>136</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>38</v>
       </c>
@@ -3400,13 +3559,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3424,34 +3583,34 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -3459,10 +3618,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3473,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3485,20 +3644,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>38</v>
       </c>
@@ -3522,13 +3677,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3546,19 +3701,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3570,10 +3725,10 @@
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>38</v>
@@ -3581,46 +3736,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>38</v>
       </c>
@@ -3629,7 +3782,7 @@
         <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>38</v>
@@ -3644,13 +3797,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3668,80 +3821,80 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3790,34 +3943,34 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>38</v>
@@ -3825,10 +3978,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3836,10 +3989,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3848,20 +4001,18 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3910,19 +4061,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3931,13 +4082,13 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -3945,21 +4096,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3968,23 +4119,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>38</v>
       </c>
@@ -4008,13 +4155,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4032,34 +4179,34 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -4067,21 +4214,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4090,23 +4237,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>38</v>
       </c>
@@ -4154,34 +4297,34 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -4189,21 +4332,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4212,19 +4355,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4274,34 +4417,34 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4309,10 +4452,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4320,32 +4463,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4370,13 +4515,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4394,34 +4539,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4429,10 +4574,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4440,10 +4585,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4452,22 +4597,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4492,104 +4637,104 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4599,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>38</v>
@@ -4614,11 +4759,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4636,45 +4783,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4682,10 +4829,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4694,19 +4841,23 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
       </c>
@@ -4754,34 +4905,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4789,14 +4940,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4812,19 +4963,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4862,19 +5013,19 @@
         <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4886,22 +5037,22 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4909,45 +5060,45 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4996,34 +5147,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -5031,21 +5182,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -5054,7 +5205,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>244</v>
@@ -5065,8 +5216,12 @@
       <c r="M27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
@@ -5114,34 +5269,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5149,21 +5304,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5172,19 +5327,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5222,46 +5377,46 @@
         <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5269,10 +5424,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5283,31 +5438,29 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5356,34 +5509,34 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5391,10 +5544,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5402,10 +5555,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5414,21 +5567,23 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
       </c>
@@ -5464,31 +5619,29 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5497,57 +5650,61 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5572,13 +5729,11 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5596,19 +5751,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5617,24 +5772,24 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5645,30 +5800,28 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5716,19 +5869,19 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5737,13 +5890,13 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>38</v>
@@ -5751,21 +5904,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5774,23 +5927,21 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5826,31 +5977,31 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5859,13 +6010,13 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -5873,10 +6024,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5887,31 +6038,31 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5960,19 +6111,19 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5981,13 +6132,13 @@
         <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>38</v>
@@ -5995,10 +6146,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6009,7 +6160,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -6021,20 +6172,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6058,13 +6205,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6082,19 +6229,19 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>330</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -6103,13 +6250,13 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -6117,14 +6264,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6143,20 +6290,18 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6180,31 +6325,31 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>146</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6216,33 +6361,33 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>343</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6253,31 +6398,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>345</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6326,19 +6471,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6347,13 +6492,13 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>38</v>
@@ -6361,10 +6506,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6375,7 +6520,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6384,19 +6529,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6422,13 +6567,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>357</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6446,45 +6591,45 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6495,31 +6640,29 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6544,13 +6687,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6568,19 +6711,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6589,13 +6732,13 @@
         <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6603,10 +6746,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6617,30 +6760,30 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6688,45 +6831,45 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>379</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6737,7 +6880,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6746,21 +6889,23 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6808,45 +6953,45 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>388</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6857,31 +7002,31 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6930,19 +7075,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>395</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6951,13 +7096,13 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>359</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>38</v>
@@ -6965,10 +7110,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6979,7 +7124,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6991,16 +7136,20 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
       </c>
@@ -7024,13 +7173,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -7048,19 +7197,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7072,10 +7221,10 @@
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -7083,14 +7232,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7109,18 +7258,20 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>95</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>251</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
       </c>
@@ -7144,13 +7295,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>376</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7168,7 +7319,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7180,7 +7331,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -7189,28 +7340,28 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>248</v>
+        <v>379</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>38</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>401</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7223,25 +7374,25 @@
         <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>97</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7290,7 +7441,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7302,7 +7453,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -7314,10 +7465,10 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>38</v>
+        <v>389</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>38</v>
@@ -7325,10 +7476,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7339,7 +7490,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7351,15 +7502,17 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7384,13 +7537,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7408,19 +7561,19 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7429,24 +7582,24 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>38</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7457,7 +7610,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7469,15 +7622,17 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7526,19 +7681,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7547,13 +7702,13 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>415</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7561,10 +7716,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7575,7 +7730,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7587,19 +7742,19 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7624,13 +7779,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7648,34 +7803,34 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>423</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7683,10 +7838,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7697,7 +7852,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7709,20 +7864,18 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>146</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7746,13 +7899,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>431</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7770,45 +7923,45 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7819,7 +7972,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7831,18 +7984,18 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7890,45 +8043,45 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AP50" t="s" s="2">
-        <v>38</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7939,7 +8092,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7951,16 +8104,20 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -8008,19 +8165,19 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>439</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -8029,13 +8186,13 @@
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -8057,7 +8214,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8066,20 +8223,18 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8128,19 +8283,19 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>442</v>
+        <v>141</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8149,13 +8304,13 @@
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>448</v>
+        <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>38</v>
@@ -8163,14 +8318,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8186,19 +8341,19 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>450</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
+        <v>145</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8248,7 +8403,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>449</v>
+        <v>146</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8260,7 +8415,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8269,13 +8424,13 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8283,14 +8438,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8303,25 +8458,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>456</v>
+        <v>149</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>457</v>
+        <v>150</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>458</v>
+        <v>100</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8370,7 +8525,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>455</v>
+        <v>151</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8382,7 +8537,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8391,13 +8546,13 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>461</v>
+        <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -8405,10 +8560,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8419,7 +8574,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8431,13 +8586,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>244</v>
+        <v>446</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>245</v>
+        <v>447</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>246</v>
+        <v>448</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8488,19 +8643,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>247</v>
+        <v>445</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8512,10 +8667,10 @@
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>38</v>
@@ -8523,21 +8678,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8549,17 +8704,15 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8608,19 +8761,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8632,10 +8785,10 @@
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>454</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>38</v>
@@ -8643,46 +8796,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>401</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -8706,13 +8855,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>38</v>
+        <v>458</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>38</v>
+        <v>459</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8730,19 +8879,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8754,10 +8903,10 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>38</v>
+        <v>460</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>38</v>
@@ -8765,10 +8914,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8776,10 +8925,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8788,22 +8937,22 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>160</v>
+        <v>465</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8828,13 +8977,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>163</v>
+        <v>466</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>164</v>
+        <v>467</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8852,34 +9001,34 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AO58" t="s" s="2">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>38</v>
@@ -8901,7 +9050,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8910,22 +9059,22 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>473</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>230</v>
+        <v>474</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8950,13 +9099,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>38</v>
+        <v>476</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8980,39 +9129,39 @@
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>474</v>
+        <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>235</v>
+        <v>468</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>236</v>
+        <v>469</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9023,7 +9172,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -9035,19 +9184,17 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>146</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9072,13 +9219,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -9096,19 +9243,19 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9117,13 +9264,13 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9131,21 +9278,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -9157,20 +9304,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>38</v>
       </c>
@@ -9194,13 +9337,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -9218,45 +9361,45 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>38</v>
+        <v>487</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>343</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9276,23 +9419,21 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>39</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>38</v>
       </c>
@@ -9340,7 +9481,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9352,7 +9493,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9361,20 +9502,1232 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AP62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP62">
+  <autoFilter ref="A1:AP72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9384,7 +10737,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-Ocupaciones.xlsx
+++ b/StructureDefinition-Ocupaciones.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-Ocupaciones.xlsx
+++ b/StructureDefinition-Ocupaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.component.code is the same as Observation.code, then Observation.value SHALL NOT be present (the Observation.component.value[x] holds the value). {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-8:bodyStructure SHALL only be present if Observation.bodySite is not present {bodySite.exists() implies bodyStructure.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -704,11 +708,11 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location|Organization|Procedure|Practitioner|Medication|Substance|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
 </t>
   </si>
   <si>
-    <t>Padciente sobre el cual se notifica la ocupación</t>
+    <t>Paciente sobre el cual se notifica la ocupación</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, device, organization, procedure or practitioner this observation is about and into whose or what record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -2016,16 +2020,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2033,29 +2037,29 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.7421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="6.75" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="17.640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="17.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="29.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2157,22 +2161,22 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP1" t="s" s="2">
         <v>38</v>
@@ -2180,10 +2184,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2194,7 +2198,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2203,19 +2207,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2265,13 +2269,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2300,10 +2304,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2314,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2323,16 +2327,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2383,19 +2387,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2432,28 +2436,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2503,19 +2507,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2552,7 +2556,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2564,16 +2568,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2599,13 +2603,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2623,19 +2627,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2658,21 +2662,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2684,16 +2688,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2743,19 +2747,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2770,7 +2774,7 @@
         <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AP6" t="s" s="2">
         <v>38</v>
@@ -2778,14 +2782,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2804,16 +2808,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2863,7 +2867,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2872,7 +2876,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2890,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>38</v>
@@ -2898,14 +2902,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2924,16 +2928,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2983,7 +2987,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2995,7 +2999,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3010,7 +3014,7 @@
         <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>38</v>
@@ -3018,14 +3022,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3038,25 +3042,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -3105,7 +3109,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3117,7 +3121,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3132,7 +3136,7 @@
         <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>38</v>
@@ -3140,10 +3144,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3163,20 +3167,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3225,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3237,22 +3241,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3260,10 +3264,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3274,7 +3278,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3283,19 +3287,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3345,22 +3349,22 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
@@ -3372,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -3380,14 +3384,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3403,20 +3407,20 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3465,7 +3469,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3477,10 +3481,10 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -3489,10 +3493,10 @@
         <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>38</v>
@@ -3500,10 +3504,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3526,13 +3530,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3583,7 +3587,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3595,7 +3599,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3607,10 +3611,10 @@
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -3618,10 +3622,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3632,7 +3636,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3644,13 +3648,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3701,16 +3705,16 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>38</v>
@@ -3728,7 +3732,7 @@
         <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>38</v>
@@ -3736,14 +3740,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3762,16 +3766,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3821,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3833,7 +3837,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3848,7 +3852,7 @@
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>38</v>
@@ -3856,14 +3860,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3876,25 +3880,25 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3943,7 +3947,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3955,7 +3959,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3970,7 +3974,7 @@
         <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>38</v>
@@ -3978,10 +3982,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3989,10 +3993,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -4001,16 +4005,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4061,19 +4065,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -4088,7 +4092,7 @@
         <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -4096,10 +4100,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4107,10 +4111,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -4119,16 +4123,16 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4155,13 +4159,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4179,19 +4183,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -4206,7 +4210,7 @@
         <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -4214,10 +4218,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4228,7 +4232,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4240,13 +4244,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4297,19 +4301,19 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -4324,7 +4328,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -4332,14 +4336,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4355,19 +4359,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4417,7 +4421,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4429,10 +4433,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -4441,10 +4445,10 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4452,10 +4456,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4463,34 +4467,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4515,13 +4519,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4539,34 +4543,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4574,10 +4578,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4600,19 +4604,19 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4637,13 +4641,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4661,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4673,13 +4677,13 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4688,7 +4692,7 @@
         <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4696,45 +4700,45 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4744,7 +4748,7 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>38</v>
@@ -4759,13 +4763,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4783,45 +4787,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4829,10 +4833,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4841,22 +4845,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4905,34 +4909,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4940,10 +4944,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4963,19 +4967,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5025,7 +5029,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5037,22 +5041,22 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -5060,21 +5064,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5083,22 +5087,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -5147,34 +5151,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -5182,21 +5186,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -5205,22 +5209,22 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5269,34 +5273,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5304,10 +5308,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5318,7 +5322,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5327,19 +5331,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5389,34 +5393,34 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5424,10 +5428,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5447,20 +5451,20 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5509,7 +5513,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5521,22 +5525,22 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5544,10 +5548,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5555,10 +5559,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5567,22 +5571,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5619,29 +5623,29 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5650,61 +5654,61 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5729,11 +5733,11 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5751,19 +5755,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5772,24 +5776,24 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5800,7 +5804,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5812,13 +5816,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5869,16 +5873,16 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
@@ -5896,7 +5900,7 @@
         <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>38</v>
@@ -5904,14 +5908,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5930,16 +5934,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5977,19 +5981,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6001,7 +6005,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -6016,7 +6020,7 @@
         <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -6024,10 +6028,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6041,28 +6045,28 @@
         <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6111,7 +6115,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6123,7 +6127,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -6135,10 +6139,10 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>38</v>
@@ -6146,10 +6150,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6160,7 +6164,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -6172,13 +6176,13 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6229,16 +6233,16 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
@@ -6256,7 +6260,7 @@
         <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -6264,14 +6268,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6290,16 +6294,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6337,19 +6341,19 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6361,7 +6365,7 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6376,7 +6380,7 @@
         <v>38</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>38</v>
@@ -6384,10 +6388,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6398,31 +6402,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6471,19 +6475,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6495,10 +6499,10 @@
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>38</v>
@@ -6506,10 +6510,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6520,7 +6524,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6529,19 +6533,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6591,19 +6595,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6615,10 +6619,10 @@
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>38</v>
@@ -6626,10 +6630,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6640,29 +6644,29 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6711,19 +6715,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6735,10 +6739,10 @@
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6746,10 +6750,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6760,29 +6764,29 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6831,19 +6835,19 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6855,10 +6859,10 @@
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>38</v>
@@ -6866,10 +6870,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6889,22 +6893,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6953,19 +6957,19 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6977,10 +6981,10 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>38</v>
@@ -6988,10 +6992,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7002,31 +7006,31 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -7075,19 +7079,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -7099,10 +7103,10 @@
         <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>38</v>
@@ -7110,10 +7114,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7124,7 +7128,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -7136,19 +7140,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7173,13 +7177,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -7197,19 +7201,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7221,10 +7225,10 @@
         <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -7232,14 +7236,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7258,19 +7262,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7295,13 +7299,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7319,7 +7323,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7331,7 +7335,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -7340,24 +7344,24 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7380,19 +7384,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7441,7 +7445,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7453,7 +7457,7 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -7465,10 +7469,10 @@
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>38</v>
@@ -7476,10 +7480,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7490,7 +7494,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7502,16 +7506,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7537,13 +7541,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7561,19 +7565,19 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7582,24 +7586,24 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7610,7 +7614,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7622,16 +7626,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7681,19 +7685,19 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7708,7 +7712,7 @@
         <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7716,10 +7720,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7730,7 +7734,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7742,19 +7746,19 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7779,13 +7783,13 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7803,19 +7807,19 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7827,10 +7831,10 @@
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7838,10 +7842,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7852,7 +7856,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7864,16 +7868,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7923,19 +7927,19 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7944,24 +7948,24 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7972,7 +7976,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7984,16 +7988,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8043,19 +8047,19 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -8064,24 +8068,24 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8104,19 +8108,19 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -8165,7 +8169,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8177,7 +8181,7 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -8189,10 +8193,10 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -8200,10 +8204,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8214,7 +8218,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8226,13 +8230,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8283,16 +8287,16 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
@@ -8310,7 +8314,7 @@
         <v>38</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>38</v>
@@ -8318,14 +8322,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8344,16 +8348,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8403,7 +8407,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8415,7 +8419,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8430,7 +8434,7 @@
         <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8438,14 +8442,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8458,25 +8462,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8525,7 +8529,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8537,7 +8541,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8552,7 +8556,7 @@
         <v>38</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -8560,10 +8564,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8574,7 +8578,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8586,13 +8590,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8643,19 +8647,19 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8667,10 +8671,10 @@
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>38</v>
@@ -8678,10 +8682,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8692,7 +8696,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8704,13 +8708,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8761,19 +8765,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8785,10 +8789,10 @@
         <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>38</v>
@@ -8796,10 +8800,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8810,7 +8814,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8822,13 +8826,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8855,13 +8859,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8879,19 +8883,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8903,10 +8907,10 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>38</v>
@@ -8914,10 +8918,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8940,19 +8944,19 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8977,13 +8981,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -9001,19 +9005,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -9022,13 +9026,13 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>38</v>
@@ -9036,10 +9040,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9062,19 +9066,19 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -9099,13 +9103,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -9123,7 +9127,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9135,7 +9139,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9144,13 +9148,13 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>38</v>
@@ -9158,10 +9162,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9172,7 +9176,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -9184,17 +9188,17 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9243,19 +9247,19 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9270,7 +9274,7 @@
         <v>38</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9278,10 +9282,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9292,7 +9296,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -9304,13 +9308,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9361,19 +9365,19 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9385,10 +9389,10 @@
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>38</v>
@@ -9396,10 +9400,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9419,19 +9423,19 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9481,7 +9485,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9493,7 +9497,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9505,10 +9509,10 @@
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>38</v>
@@ -9516,10 +9520,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9539,19 +9543,19 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9601,7 +9605,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9613,7 +9617,7 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -9625,10 +9629,10 @@
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>38</v>
@@ -9636,10 +9640,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9659,22 +9663,22 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9723,7 +9727,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9732,10 +9736,10 @@
         <v>37</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9747,10 +9751,10 @@
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>38</v>
@@ -9758,10 +9762,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9772,7 +9776,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9784,13 +9788,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9841,16 +9845,16 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>38</v>
@@ -9868,7 +9872,7 @@
         <v>38</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>38</v>
@@ -9876,14 +9880,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9902,16 +9906,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9961,7 +9965,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9973,7 +9977,7 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9988,7 +9992,7 @@
         <v>38</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>38</v>
@@ -9996,14 +10000,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10016,25 +10020,25 @@
         <v>38</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -10083,7 +10087,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10095,7 +10099,7 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -10110,7 +10114,7 @@
         <v>38</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>38</v>
@@ -10118,10 +10122,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10129,10 +10133,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -10141,22 +10145,22 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10181,13 +10185,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10205,34 +10209,34 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>38</v>
@@ -10240,10 +10244,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10254,7 +10258,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10263,22 +10267,22 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10327,19 +10331,19 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -10348,24 +10352,24 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10376,7 +10380,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10388,19 +10392,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10425,13 +10429,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -10449,19 +10453,19 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -10473,10 +10477,10 @@
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>38</v>
@@ -10484,14 +10488,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10510,19 +10514,19 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -10547,13 +10551,13 @@
         <v>38</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>38</v>
@@ -10571,7 +10575,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10583,7 +10587,7 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -10592,24 +10596,24 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10635,16 +10639,16 @@
         <v>39</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10693,7 +10697,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10705,7 +10709,7 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -10717,10 +10721,10 @@
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>38</v>
